--- a/analysis/garymorphlm.xlsx
+++ b/analysis/garymorphlm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>spec</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>maxstw</t>
+  </si>
+  <si>
+    <t>excavated</t>
+  </si>
+  <si>
+    <t>basiccontx</t>
+  </si>
+  <si>
+    <t>surface</t>
   </si>
 </sst>
 </file>
@@ -541,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +578,11 @@
       <c r="F1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -589,8 +601,11 @@
       <c r="F2">
         <v>18.47</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -609,8 +624,11 @@
       <c r="F3">
         <v>15.53</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -629,8 +647,11 @@
       <c r="F4">
         <v>17.41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -649,8 +670,11 @@
       <c r="F5">
         <v>15.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -669,8 +693,11 @@
       <c r="F6">
         <v>19.329999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -689,8 +716,11 @@
       <c r="F7">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -709,8 +739,11 @@
       <c r="F8">
         <v>17.82</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -729,8 +762,11 @@
       <c r="F9">
         <v>25.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -749,8 +785,11 @@
       <c r="F10">
         <v>15.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -769,8 +808,11 @@
       <c r="F11">
         <v>19.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -789,8 +831,11 @@
       <c r="F12">
         <v>14.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -809,8 +854,11 @@
       <c r="F13">
         <v>15.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -829,8 +877,11 @@
       <c r="F14">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -849,8 +900,11 @@
       <c r="F15">
         <v>14.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -869,8 +923,11 @@
       <c r="F16">
         <v>15.31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -889,8 +946,11 @@
       <c r="F17">
         <v>16.66</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -909,8 +969,11 @@
       <c r="F18">
         <v>26.94</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -929,8 +992,11 @@
       <c r="F19">
         <v>21.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -949,8 +1015,11 @@
       <c r="F20">
         <v>18.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -969,8 +1038,11 @@
       <c r="F21">
         <v>15.18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -989,8 +1061,11 @@
       <c r="F22">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1009,8 +1084,11 @@
       <c r="F23">
         <v>21.06</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1029,8 +1107,11 @@
       <c r="F24">
         <v>18.059999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1049,8 +1130,11 @@
       <c r="F25">
         <v>19.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1069,8 +1153,11 @@
       <c r="F26">
         <v>18.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1089,8 +1176,11 @@
       <c r="F27">
         <v>17.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1109,8 +1199,11 @@
       <c r="F28">
         <v>19.170000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1129,8 +1222,11 @@
       <c r="F29">
         <v>19.489999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1149,8 +1245,11 @@
       <c r="F30">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1169,8 +1268,11 @@
       <c r="F31">
         <v>14.38</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1189,8 +1291,11 @@
       <c r="F32">
         <v>18.420000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1209,8 +1314,11 @@
       <c r="F33">
         <v>14.52</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1337,11 @@
       <c r="F34">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1249,8 +1360,11 @@
       <c r="F35">
         <v>24.09</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1269,8 +1383,11 @@
       <c r="F36">
         <v>18.670000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1289,8 +1406,11 @@
       <c r="F37">
         <v>21.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1309,8 +1429,11 @@
       <c r="F38">
         <v>21.69</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1329,8 +1452,11 @@
       <c r="F39">
         <v>20.21</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1349,8 +1475,11 @@
       <c r="F40">
         <v>22.39</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1369,8 +1498,11 @@
       <c r="F41">
         <v>22.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1389,8 +1521,11 @@
       <c r="F42">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1409,8 +1544,11 @@
       <c r="F43">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1429,8 +1567,11 @@
       <c r="F44">
         <v>17.48</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1449,8 +1590,11 @@
       <c r="F45">
         <v>18.48</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1469,8 +1613,11 @@
       <c r="F46">
         <v>20.09</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1489,8 +1636,11 @@
       <c r="F47">
         <v>15.16</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1509,8 +1659,11 @@
       <c r="F48">
         <v>19.690000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1529,8 +1682,11 @@
       <c r="F49">
         <v>22.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1549,8 +1705,11 @@
       <c r="F50">
         <v>18.41</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1569,8 +1728,11 @@
       <c r="F51">
         <v>15.32</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1589,8 +1751,11 @@
       <c r="F52">
         <v>20.63</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1609,8 +1774,11 @@
       <c r="F53">
         <v>15.27</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1629,8 +1797,11 @@
       <c r="F54">
         <v>14.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1649,8 +1820,11 @@
       <c r="F55">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1669,8 +1843,11 @@
       <c r="F56">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1689,8 +1866,11 @@
       <c r="F57">
         <v>18.59</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1709,8 +1889,11 @@
       <c r="F58">
         <v>19.149999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1729,8 +1912,11 @@
       <c r="F59">
         <v>24.65</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1749,8 +1935,11 @@
       <c r="F60">
         <v>20.22</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6956</v>
       </c>
@@ -1769,8 +1958,11 @@
       <c r="F61">
         <v>13.67</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9058</v>
       </c>
@@ -1789,8 +1981,11 @@
       <c r="F62">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10436</v>
       </c>
@@ -1809,8 +2004,11 @@
       <c r="F63">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1829,8 +2027,11 @@
       <c r="F64">
         <v>28.43</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1848,6 +2049,9 @@
       </c>
       <c r="F65">
         <v>22.54</v>
+      </c>
+      <c r="G65" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
